--- a/frontend/src/Example.xlsx
+++ b/frontend/src/Example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nomon\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nomon\OneDrive\Desktop\cmu-score-announcement\frontend\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6835584E-0BBD-4A97-AB38-C3EA5DDACF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EC5F1A-9B37-41CD-BF3D-8723065EE669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="108" windowWidth="11556" windowHeight="12852" xr2:uid="{5E4923E5-E3E3-45FB-AEBA-DD38CD184FF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5E4923E5-E3E3-45FB-AEBA-DD38CD184FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>full_score</t>
   </si>
@@ -53,33 +53,6 @@
     <t>section</t>
   </si>
   <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C+</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>D+</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>studentId</t>
   </si>
   <si>
@@ -144,6 +117,9 @@
   </si>
   <si>
     <t>กรอกคะแนนเต็มของคะแนนนั้น ๆ</t>
+  </si>
+  <si>
+    <t>Assign 1</t>
   </si>
 </sst>
 </file>
@@ -689,7 +665,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,8 +699,8 @@
       <c r="F1" s="23">
         <v>10</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>3</v>
+      <c r="G1" s="24">
+        <v>20</v>
       </c>
       <c r="H1" s="25"/>
     </row>
@@ -733,13 +709,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -748,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H2" s="20"/>
     </row>
@@ -757,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>640610601</v>
@@ -771,16 +747,16 @@
       <c r="F3" s="1">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
+      <c r="G3" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>640610602</v>
@@ -791,16 +767,16 @@
       <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
+      <c r="G4" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>640610603</v>
@@ -811,17 +787,17 @@
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
+      <c r="G5" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5">
         <v>640610604</v>
@@ -832,7 +808,7 @@
       <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="8">
         <v>12</v>
       </c>
     </row>
@@ -841,10 +817,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
         <v>640610605</v>
@@ -855,16 +831,16 @@
       <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>13</v>
+      <c r="G7" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>640610606</v>
@@ -875,16 +851,16 @@
       <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
+      <c r="G8" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>640610607</v>
@@ -895,16 +871,16 @@
       <c r="F9" s="1">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
+      <c r="G9" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>640610608</v>
@@ -915,20 +891,20 @@
       <c r="F10" s="1">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>7</v>
+      <c r="G10" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E16" s="10"/>
       <c r="F16" s="19" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L16" s="27"/>
     </row>

--- a/frontend/src/Example.xlsx
+++ b/frontend/src/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nomon\OneDrive\Desktop\cmu-score-announcement\frontend\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EC5F1A-9B37-41CD-BF3D-8723065EE669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0500227A-BC7F-4214-9FCD-DE6AB7FD2D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5E4923E5-E3E3-45FB-AEBA-DD38CD184FF4}"/>
+    <workbookView xWindow="8232" yWindow="108" windowWidth="11556" windowHeight="12852" xr2:uid="{5E4923E5-E3E3-45FB-AEBA-DD38CD184FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,6 +752,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -772,6 +775,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -792,7 +798,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -836,6 +844,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -856,6 +867,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -876,6 +890,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>

--- a/frontend/src/Example.xlsx
+++ b/frontend/src/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nomon\OneDrive\Desktop\cmu-score-announcement\frontend\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0500227A-BC7F-4214-9FCD-DE6AB7FD2D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D80FE-B0F8-4F14-A02B-BCBA7B454F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8232" yWindow="108" windowWidth="11556" windowHeight="12852" xr2:uid="{5E4923E5-E3E3-45FB-AEBA-DD38CD184FF4}"/>
   </bookViews>
@@ -665,14 +665,13 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="2" customWidth="1"/>
+    <col min="1" max="3" width="12.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.21875" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" style="4" customWidth="1"/>
@@ -709,13 +708,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -732,14 +731,14 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2">
+        <v>640610601</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>640610601</v>
       </c>
       <c r="E3" s="1">
         <v>38.51</v>
@@ -755,14 +754,14 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2">
+        <v>640610602</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>640610602</v>
       </c>
       <c r="E4" s="1">
         <v>54.12</v>
@@ -778,14 +777,14 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2">
+        <v>640610603</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="2">
-        <v>640610603</v>
       </c>
       <c r="E5" s="1">
         <v>24.01</v>
@@ -801,14 +800,14 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="5">
+        <v>640610604</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="5">
-        <v>640610604</v>
       </c>
       <c r="E6" s="7">
         <v>16.22</v>
@@ -824,14 +823,14 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="2">
+        <v>640610605</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="2">
-        <v>640610605</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -847,14 +846,14 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="2">
+        <v>640610606</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="2">
-        <v>640610606</v>
       </c>
       <c r="E8" s="1">
         <v>12.4</v>
@@ -870,14 +869,14 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="2">
+        <v>640610607</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" s="2">
-        <v>640610607</v>
       </c>
       <c r="E9" s="1">
         <v>31.32</v>
@@ -893,14 +892,14 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="2">
+        <v>640610608</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="2">
-        <v>640610608</v>
       </c>
       <c r="E10" s="1">
         <v>33.21</v>
